--- a/figures/result4.xlsx
+++ b/figures/result4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\sakakibara\monte-carlo-ray-tracer_approx\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E22C90-B072-4892-80BC-6938237140E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA16EF13-303F-44BF-A2AE-83E84A3B36D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="442" yWindow="675" windowWidth="16201" windowHeight="10980" firstSheet="11" activeTab="16" xr2:uid="{31F97659-7F59-47E3-B467-703D677997C4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="2" activeTab="9" xr2:uid="{31F97659-7F59-47E3-B467-703D677997C4}"/>
   </bookViews>
   <sheets>
     <sheet name="【非IS】Sheet0" sheetId="7" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="Sheet13" sheetId="15" r:id="rId15"/>
     <sheet name="Sheet14" sheetId="16" r:id="rId16"/>
     <sheet name="Sheet15" sheetId="17" r:id="rId17"/>
+    <sheet name="Sheet16" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="68">
   <si>
     <t>wc, spp=16+16, prob=0.5</t>
     <phoneticPr fontId="1"/>
@@ -570,16 +571,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>8x8ブロック用修正あり</t>
-    <rPh sb="7" eb="8">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>method7</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -615,6 +606,71 @@
     <rPh sb="41" eb="44">
       <t>チュウオウチ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8x8ピクセル内に1つでもedgeがあるなら近似不可、not takenなら</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3x3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RGB中央値</t>
+    </r>
+    <rPh sb="7" eb="8">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>キンジフカ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>チュウオウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8x8ブロック用確率修正あり</t>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>method8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>method4</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -797,14 +853,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -26043,14 +26099,14 @@
       <c r="Q1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19" t="s">
+      <c r="S1" s="20"/>
+      <c r="T1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="19"/>
+      <c r="U1" s="20"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="7" t="s">
@@ -31449,8 +31505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8765469B-5F94-49BD-B971-8DB46571A1FA}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -31468,14 +31524,14 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="20"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8">
@@ -31729,7 +31785,7 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -31752,14 +31808,14 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="20"/>
+      <c r="G3" s="21"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8">
@@ -32044,14 +32100,14 @@
       <c r="A21" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20" t="s">
+      <c r="E21" s="21"/>
+      <c r="F21" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="20"/>
+      <c r="G21" s="21"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8">
@@ -32503,10 +32559,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC217AD9-4F0F-4248-8A5E-AB92E316D2E9}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E24"/>
+      <selection activeCell="G6" sqref="G6:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -32517,419 +32573,544 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
-        <v>45</v>
+      <c r="A1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <f>1-B5/(1000*1000*16)</f>
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.94236413718140799</v>
-      </c>
-      <c r="E5" s="3">
-        <v>135.67621299999999</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>550892</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ref="C6:C24" si="0">1-B6/(1000*1000*16)</f>
-        <v>0.96556925000000005</v>
+        <f>1-B6/(1000*1000*16)</f>
+        <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>0.94240595049863096</v>
+        <v>0.96776929698046898</v>
       </c>
       <c r="E6" s="3">
-        <v>135.775576</v>
+        <v>78.153148999999999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.972481124278055</v>
+      </c>
+      <c r="G6" s="3">
+        <v>66.256393000000003</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>550892</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" ref="C7:C25" si="0">1-B7/(1000*1000*16)</f>
+        <v>0.96556925000000005</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.96780584044561202</v>
+      </c>
+      <c r="E7" s="3">
+        <v>78.182562000000004</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.97252770387575005</v>
+      </c>
+      <c r="G7" s="3">
+        <v>66.240353999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
         <v>40</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>1110254</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>0.93060912500000004</v>
       </c>
-      <c r="D7" s="2">
-        <v>0.94263967873839805</v>
-      </c>
-      <c r="E7" s="3">
-        <v>135.23481000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
+      <c r="D8" s="2">
+        <v>0.96778626910752796</v>
+      </c>
+      <c r="E8" s="3">
+        <v>78.273617999999999</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.97255823702790101</v>
+      </c>
+      <c r="G8" s="3">
+        <v>66.221980000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
         <v>48</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>1815576</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>0.8865265</v>
       </c>
-      <c r="D8" s="2">
-        <v>0.94243570780456898</v>
-      </c>
-      <c r="E8" s="3">
-        <v>135.78156000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
+      <c r="D9" s="2">
+        <v>0.96789364503259401</v>
+      </c>
+      <c r="E9" s="3">
+        <v>78.129298000000006</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.97265161572970804</v>
+      </c>
+      <c r="G9" s="3">
+        <v>66.097035000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
         <v>56</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>2486658</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>0.84458387499999998</v>
       </c>
-      <c r="D9" s="2">
-        <v>0.94253077660543405</v>
-      </c>
-      <c r="E9" s="3">
-        <v>137.01212200000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
+      <c r="D10" s="2">
+        <v>0.96781667243820502</v>
+      </c>
+      <c r="E10" s="3">
+        <v>79.808518000000007</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.97252992877157896</v>
+      </c>
+      <c r="G10" s="3">
+        <v>67.867846999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
         <v>64</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>3185554</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>0.80090287500000001</v>
       </c>
-      <c r="D10" s="2">
-        <v>0.94264501276690105</v>
-      </c>
-      <c r="E10" s="3">
-        <v>138.18947</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
+      <c r="D11" s="2">
+        <v>0.96798044397623895</v>
+      </c>
+      <c r="E11" s="3">
+        <v>80.863951999999998</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.97270523889123095</v>
+      </c>
+      <c r="G11" s="3">
+        <v>68.856156999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
         <v>72</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>3729419</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>0.7669113125</v>
       </c>
-      <c r="D11" s="2">
-        <v>0.94264028652195597</v>
-      </c>
-      <c r="E11" s="3">
-        <v>138.442238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
+      <c r="D12" s="2">
+        <v>0.96795073379510199</v>
+      </c>
+      <c r="E12" s="3">
+        <v>81.229039999999998</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.97279965768981802</v>
+      </c>
+      <c r="G12" s="3">
+        <v>68.932816000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
         <v>80</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>4253715</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>0.73414281250000002</v>
       </c>
-      <c r="D12" s="2">
-        <v>0.94322079165950001</v>
-      </c>
-      <c r="E12" s="3">
-        <v>137.61454000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
+      <c r="D13" s="2">
+        <v>0.96800749704532196</v>
+      </c>
+      <c r="E13" s="3">
+        <v>81.676907999999997</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.97281989688764803</v>
+      </c>
+      <c r="G13" s="3">
+        <v>69.494872000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
         <v>88</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>4659434</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>0.70878537499999994</v>
       </c>
-      <c r="D13" s="2">
-        <v>0.94334014406203104</v>
-      </c>
-      <c r="E13" s="3">
-        <v>138.74350999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
+      <c r="D14" s="2">
+        <v>0.96812965007468199</v>
+      </c>
+      <c r="E14" s="3">
+        <v>82.806319999999999</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.97291448509863299</v>
+      </c>
+      <c r="G14" s="3">
+        <v>70.698434000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
         <v>96</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>5032985</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>0.6854384375</v>
       </c>
-      <c r="D14" s="2">
-        <v>0.94360039465443002</v>
-      </c>
-      <c r="E14" s="3">
-        <v>137.34659600000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
+      <c r="D15" s="2">
+        <v>0.96809730951331296</v>
+      </c>
+      <c r="E15" s="3">
+        <v>82.215599999999995</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.97291709037283303</v>
+      </c>
+      <c r="G15" s="3">
+        <v>70.036007999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
         <v>104</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>5343378</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>0.66603887499999992</v>
       </c>
-      <c r="D15" s="2">
-        <v>0.943646839001136</v>
-      </c>
-      <c r="E15" s="3">
-        <v>137.78699800000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
+      <c r="D16" s="2">
+        <v>0.96809515501804</v>
+      </c>
+      <c r="E16" s="3">
+        <v>82.780568000000002</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.97300254499964001</v>
+      </c>
+      <c r="G16" s="3">
+        <v>70.371337999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
         <v>112</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>5600093</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>0.64999418749999993</v>
       </c>
-      <c r="D16" s="2">
-        <v>0.94415177157365704</v>
-      </c>
-      <c r="E16" s="3">
-        <v>136.765728</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
+      <c r="D17" s="2">
+        <v>0.96816039590427605</v>
+      </c>
+      <c r="E17" s="3">
+        <v>82.860274000000004</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.97303378850146804</v>
+      </c>
+      <c r="G17" s="3">
+        <v>70.544702999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
         <v>120</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>5812535</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>0.63671656249999997</v>
       </c>
-      <c r="D17" s="2">
-        <v>0.94419794653504996</v>
-      </c>
-      <c r="E17" s="3">
-        <v>137.21523199999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
+      <c r="D18" s="2">
+        <v>0.96827108489881897</v>
+      </c>
+      <c r="E18" s="3">
+        <v>83.082684</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.97313097498299295</v>
+      </c>
+      <c r="G18" s="3">
+        <v>70.792968000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
         <v>128</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>5993043</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>0.62543481249999999</v>
       </c>
-      <c r="D18" s="2">
-        <v>0.94427581384124304</v>
-      </c>
-      <c r="E18" s="3">
-        <v>136.62109599999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
+      <c r="D19" s="2">
+        <v>0.96825940431377699</v>
+      </c>
+      <c r="E19" s="3">
+        <v>82.821178000000003</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.97319919146910105</v>
+      </c>
+      <c r="G19" s="3">
+        <v>70.344005999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
         <v>144</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>6294330</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>0.60660437499999997</v>
       </c>
-      <c r="D19" s="2">
-        <v>0.94489000316111904</v>
-      </c>
-      <c r="E19" s="3">
-        <v>134.86677800000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
+      <c r="D20" s="2">
+        <v>0.96829261953916002</v>
+      </c>
+      <c r="E20" s="3">
+        <v>82.532111999999998</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.97320870825899397</v>
+      </c>
+      <c r="G20" s="3">
+        <v>70.145912999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
         <v>160</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>6509015</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>0.59318656250000001</v>
       </c>
-      <c r="D20" s="2">
-        <v>0.94517311472965504</v>
-      </c>
-      <c r="E20" s="3">
-        <v>134.017087</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
+      <c r="D21" s="2">
+        <v>0.968345986377811</v>
+      </c>
+      <c r="E21" s="3">
+        <v>82.165299000000005</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.97328263990624397</v>
+      </c>
+      <c r="G21" s="3">
+        <v>69.722857000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
         <v>176</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>6706536</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>0.58084150000000001</v>
       </c>
-      <c r="D21" s="2">
-        <v>0.94522682320511497</v>
-      </c>
-      <c r="E21" s="3">
-        <v>134.49934500000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
+      <c r="D22" s="2">
+        <v>0.96804198034712996</v>
+      </c>
+      <c r="E22" s="3">
+        <v>83.602526999999995</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.97311607978793502</v>
+      </c>
+      <c r="G22" s="3">
+        <v>70.831869999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
         <v>192</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>6851622</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>0.57177362500000006</v>
       </c>
-      <c r="D22" s="2">
-        <v>0.94556173972096902</v>
-      </c>
-      <c r="E22" s="3">
-        <v>134.26707400000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
+      <c r="D23" s="2">
+        <v>0.96791968318602795</v>
+      </c>
+      <c r="E23" s="3">
+        <v>84.586650000000006</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.97296106473931898</v>
+      </c>
+      <c r="G23" s="3">
+        <v>71.888998000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
         <v>224</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>7074018</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>0.55787387500000007</v>
       </c>
-      <c r="D23" s="2">
-        <v>0.94594724299250998</v>
-      </c>
-      <c r="E23" s="3">
-        <v>132.16850099999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
+      <c r="D24" s="2">
+        <v>0.96805163796170302</v>
+      </c>
+      <c r="E24" s="3">
+        <v>83.153330999999994</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.97304380346535202</v>
+      </c>
+      <c r="G24" s="3">
+        <v>70.619933000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
         <v>256</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>7192338</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>0.55047887500000003</v>
       </c>
-      <c r="D24" s="2">
-        <v>0.94612047273718702</v>
-      </c>
-      <c r="E24" s="3">
-        <v>132.94183699999999</v>
+      <c r="D25" s="2">
+        <v>0.96789521350108798</v>
+      </c>
+      <c r="E25" s="3">
+        <v>84.716925000000003</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.97299343793259496</v>
+      </c>
+      <c r="G25" s="3">
+        <v>71.923196000000004</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32990,22 +33171,22 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20" t="s">
+      <c r="F7" s="21"/>
+      <c r="G7" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="20"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -33413,7 +33594,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -33462,22 +33643,22 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20" t="s">
+      <c r="F7" s="21"/>
+      <c r="G7" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="20"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -33970,14 +34151,14 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="20"/>
+      <c r="G3" s="21"/>
       <c r="H3" s="6"/>
       <c r="I3" t="s">
         <v>57</v>
@@ -34474,14 +34655,14 @@
       <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20" t="s">
+      <c r="E27" s="21"/>
+      <c r="F27" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="20"/>
+      <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
@@ -34517,10 +34698,10 @@
         <f>1-B29/(16*960*720)</f>
         <v>1</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="19">
         <v>0.98278491665647305</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="19">
         <v>69.594707754629596</v>
       </c>
     </row>
@@ -34535,10 +34716,10 @@
         <f t="shared" ref="C30:C34" si="1">1-B30/(16*960*720)</f>
         <v>0.95230812355324068</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="19">
         <v>0.98258434996056998</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="19">
         <v>70.572907986111105</v>
       </c>
     </row>
@@ -34553,10 +34734,10 @@
         <f t="shared" si="1"/>
         <v>0.91520887586805555</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="19">
         <v>0.98252440742692504</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="19">
         <v>70.675951967592596</v>
       </c>
     </row>
@@ -34571,10 +34752,10 @@
         <f t="shared" si="1"/>
         <v>0.88361698857060189</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="19">
         <v>0.98224001234206404</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="19">
         <v>71.934537037037003</v>
       </c>
     </row>
@@ -34589,10 +34770,10 @@
         <f t="shared" si="1"/>
         <v>0.85071985315393517</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="19">
         <v>0.98223014331224301</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="19">
         <v>71.891183449074006</v>
       </c>
     </row>
@@ -34607,10 +34788,10 @@
         <f t="shared" si="1"/>
         <v>0.81871952763310185</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="19">
         <v>0.98218223776746405</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="19">
         <v>72.221414930555497</v>
       </c>
     </row>
@@ -34625,10 +34806,10 @@
         <f t="shared" ref="C35:C51" si="2">1-B35/(16*960*720)</f>
         <v>0.78807318793402781</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="19">
         <v>0.981886757831407</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="19">
         <v>73.379247685185106</v>
       </c>
     </row>
@@ -34643,10 +34824,10 @@
         <f t="shared" si="2"/>
         <v>0.76426495587384258</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="19">
         <v>0.98184794701506395</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="19">
         <v>73.510438368055503</v>
       </c>
     </row>
@@ -34661,10 +34842,10 @@
         <f t="shared" si="2"/>
         <v>0.73880181206597229</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="19">
         <v>0.98178604368061695</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="19">
         <v>73.605598958333303</v>
       </c>
     </row>
@@ -34679,10 +34860,10 @@
         <f t="shared" si="2"/>
         <v>0.71866319444444438</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="19">
         <v>0.98165272625927902</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="19">
         <v>74.118430266203703</v>
       </c>
     </row>
@@ -34697,10 +34878,10 @@
         <f t="shared" si="2"/>
         <v>0.69920762803819447</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="19">
         <v>0.98163093407878699</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="19">
         <v>74.254309895833302</v>
       </c>
     </row>
@@ -34715,10 +34896,10 @@
         <f t="shared" si="2"/>
         <v>0.68742657696759257</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="19">
         <v>0.98140606262928798</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="19">
         <v>75.240811631944396</v>
       </c>
     </row>
@@ -34733,10 +34914,10 @@
         <f t="shared" si="2"/>
         <v>0.66786404079861117</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="19">
         <v>0.98137777838529605</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="19">
         <v>75.299260706018501</v>
       </c>
     </row>
@@ -34751,10 +34932,10 @@
         <f t="shared" si="2"/>
         <v>0.65755325882523152</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="19">
         <v>0.981258961536292</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="19">
         <v>75.777980324073994</v>
       </c>
     </row>
@@ -34769,10 +34950,10 @@
         <f t="shared" si="2"/>
         <v>0.64318784360532399</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="19">
         <v>0.98119867806976402</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="19">
         <v>76.091451099536997</v>
       </c>
     </row>
@@ -34787,10 +34968,10 @@
         <f t="shared" si="2"/>
         <v>0.63316026475694442</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="19">
         <v>0.98108834215331897</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="19">
         <v>76.3626851851851</v>
       </c>
     </row>
@@ -34805,10 +34986,10 @@
         <f t="shared" si="2"/>
         <v>0.62141212745949082</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="19">
         <v>0.98103116395912904</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="19">
         <v>76.757346643518503</v>
       </c>
     </row>
@@ -34914,7 +35095,7 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -34935,21 +35116,21 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="20"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="6"/>
       <c r="I4" t="s">
         <v>57</v>
@@ -34992,16 +35173,16 @@
         <f>1-B6/(16*1000*1000)</f>
         <v>1</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="2">
         <v>0.96775694509469501</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="3">
         <v>78.316973000000004</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="2">
         <v>0.97251113714817505</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="3">
         <v>66.304790999999994</v>
       </c>
     </row>
@@ -35016,16 +35197,16 @@
         <f t="shared" ref="C7:C23" si="0">1-B7/(16*1000*1000)</f>
         <v>0.96252387500000003</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="2">
         <v>0.96751133333071504</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="3">
         <v>78.806700000000006</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="2">
         <v>0.97243502784281999</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="3">
         <v>66.378063999999995</v>
       </c>
     </row>
@@ -35040,16 +35221,16 @@
         <f t="shared" si="0"/>
         <v>0.93183068749999998</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="2">
         <v>0.96744264831175697</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="3">
         <v>78.995127999999994</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="2">
         <v>0.97245562865410995</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="3">
         <v>66.335386</v>
       </c>
     </row>
@@ -35064,16 +35245,16 @@
         <f t="shared" si="0"/>
         <v>0.88892812499999996</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="2">
         <v>0.96708261130810802</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="3">
         <v>80.053111999999999</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="2">
         <v>0.97215360672004902</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="3">
         <v>67.226954000000006</v>
       </c>
     </row>
@@ -35088,16 +35269,16 @@
         <f t="shared" si="0"/>
         <v>0.84195500000000001</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="2">
         <v>0.96681022560753005</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="3">
         <v>80.668756000000002</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="2">
         <v>0.971934016162596</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="3">
         <v>67.699326999999997</v>
       </c>
     </row>
@@ -35112,16 +35293,16 @@
         <f t="shared" si="0"/>
         <v>0.80053206249999997</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="2">
         <v>0.966425846658725</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="3">
         <v>81.384595000000004</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="2">
         <v>0.97175512466846503</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="3">
         <v>67.927529000000007</v>
       </c>
     </row>
@@ -35136,16 +35317,16 @@
         <f t="shared" si="0"/>
         <v>0.76261562500000002</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="2">
         <v>0.96607333713733901</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="3">
         <v>82.394709000000006</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="2">
         <v>0.97140467291384003</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="3">
         <v>68.892815999999996</v>
       </c>
     </row>
@@ -35160,16 +35341,16 @@
         <f t="shared" si="0"/>
         <v>0.73260118750000003</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="2">
         <v>0.96595695227830103</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="3">
         <v>82.585587000000004</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="2">
         <v>0.97141003287634398</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="3">
         <v>68.789834999999997</v>
       </c>
     </row>
@@ -35184,16 +35365,16 @@
         <f t="shared" si="0"/>
         <v>0.70540812499999994</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="2">
         <v>0.96570437923826502</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="3">
         <v>83.236022000000006</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="2">
         <v>0.971274162760704</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="3">
         <v>69.153654000000003</v>
       </c>
     </row>
@@ -35208,16 +35389,16 @@
         <f t="shared" si="0"/>
         <v>0.68429625000000005</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="2">
         <v>0.96560464759833597</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="3">
         <v>83.612465</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="2">
         <v>0.97126905909782302</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="3">
         <v>69.273556999999997</v>
       </c>
     </row>
@@ -35232,16 +35413,16 @@
         <f t="shared" si="0"/>
         <v>0.66540131250000001</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="2">
         <v>0.96553413208322403</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="3">
         <v>83.720440999999994</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="2">
         <v>0.97118440990463095</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="3">
         <v>69.416038999999998</v>
       </c>
     </row>
@@ -35256,16 +35437,16 @@
         <f t="shared" si="0"/>
         <v>0.648305625</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="2">
         <v>0.96537170985237097</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="3">
         <v>84.088851000000005</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="2">
         <v>0.97116133102497604</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="3">
         <v>69.433699000000004</v>
       </c>
     </row>
@@ -35280,16 +35461,16 @@
         <f t="shared" si="0"/>
         <v>0.63499312500000005</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="2">
         <v>0.96518190638506896</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="3">
         <v>84.661966000000007</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="2">
         <v>0.97099018226524902</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="3">
         <v>69.948646999999994</v>
       </c>
     </row>
@@ -35304,16 +35485,16 @@
         <f t="shared" si="0"/>
         <v>0.62366312499999998</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="2">
         <v>0.96497793625105999</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="3">
         <v>85.067471999999995</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="2">
         <v>0.97075650064609498</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="3">
         <v>70.430288000000004</v>
       </c>
     </row>
@@ -35328,16 +35509,16 @@
         <f t="shared" si="0"/>
         <v>0.60486462500000004</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="2">
         <v>0.96489603896548504</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="3">
         <v>85.555368999999999</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="2">
         <v>0.97069088838029505</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="3">
         <v>70.838052000000005</v>
       </c>
     </row>
@@ -35352,16 +35533,16 @@
         <f t="shared" si="0"/>
         <v>0.59016793749999996</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="2">
         <v>0.96486410269240697</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="3">
         <v>85.483649999999997</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="2">
         <v>0.97070917309847105</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="3">
         <v>70.667681000000002</v>
       </c>
     </row>
@@ -35376,16 +35557,16 @@
         <f t="shared" si="0"/>
         <v>0.56832793749999999</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="2">
         <v>0.96468784104530703</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="3">
         <v>85.862548000000004</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="2">
         <v>0.97060219417372795</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="3">
         <v>70.873953</v>
       </c>
     </row>
@@ -35400,16 +35581,16 @@
         <f t="shared" si="0"/>
         <v>0.5550453125</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="2">
         <v>0.96458556918959804</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="3">
         <v>86.376855000000006</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="2">
         <v>0.97054212675871498</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="3">
         <v>71.267336999999998</v>
       </c>
     </row>
@@ -35432,10 +35613,10 @@
       <c r="A31" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="20"/>
+      <c r="E31" s="21"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
@@ -35545,9 +35726,492 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C651001-139A-4D2B-9016-919EA8BB8D19}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <cols>
+    <col min="2" max="2" width="17.1875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.8125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <f>1-B6/(16*1000*1000)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.967686172806829</v>
+      </c>
+      <c r="E6" s="3">
+        <v>78.305565999999999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.97236145960902098</v>
+      </c>
+      <c r="G6" s="3">
+        <v>66.489465999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>578197</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" ref="C7:C22" si="0">1-B7/(16*1000*1000)</f>
+        <v>0.96386268750000004</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.96772668234181702</v>
+      </c>
+      <c r="E7" s="3">
+        <v>78.188395999999997</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.97242087949349199</v>
+      </c>
+      <c r="G7" s="3">
+        <v>66.335538999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>1085306</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.93216837500000005</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.96770188163785997</v>
+      </c>
+      <c r="E8" s="3">
+        <v>78.596369999999993</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.97236788956050302</v>
+      </c>
+      <c r="G8" s="3">
+        <v>66.782579999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>1775108</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.88905575000000003</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.96788431179142298</v>
+      </c>
+      <c r="E9" s="3">
+        <v>78.488919999999993</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.97264019608923502</v>
+      </c>
+      <c r="G9" s="3">
+        <v>66.452196000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>56</v>
+      </c>
+      <c r="B10">
+        <v>2532372</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.84172674999999997</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.967876225187985</v>
+      </c>
+      <c r="E10" s="3">
+        <v>79.825119999999998</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.97266462454332003</v>
+      </c>
+      <c r="G10" s="3">
+        <v>67.694059999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>3180783</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.80120106250000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.96780686723186504</v>
+      </c>
+      <c r="E11" s="3">
+        <v>80.448031</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.972579120254908</v>
+      </c>
+      <c r="G11" s="3">
+        <v>68.357585999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>72</v>
+      </c>
+      <c r="B12">
+        <v>3748676</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.76570775000000002</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.96791713757984599</v>
+      </c>
+      <c r="E12" s="3">
+        <v>81.368926000000002</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.97271638481452305</v>
+      </c>
+      <c r="G12" s="3">
+        <v>69.239906000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>80</v>
+      </c>
+      <c r="B13">
+        <v>4293676</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.73164525000000002</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.96799662885813398</v>
+      </c>
+      <c r="E13" s="3">
+        <v>81.486787000000007</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.97273526347787698</v>
+      </c>
+      <c r="G13" s="3">
+        <v>69.471388000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>88</v>
+      </c>
+      <c r="B14">
+        <v>4671489</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.70803193749999993</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.96823015296826298</v>
+      </c>
+      <c r="E14" s="3">
+        <v>80.898826</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.97302454812462902</v>
+      </c>
+      <c r="G14" s="3">
+        <v>68.770505999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>96</v>
+      </c>
+      <c r="B15">
+        <v>5046939</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.6845663125</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.96805520417337498</v>
+      </c>
+      <c r="E15" s="3">
+        <v>82.724610999999996</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.97285362647257301</v>
+      </c>
+      <c r="G15" s="3">
+        <v>70.571721999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>104</v>
+      </c>
+      <c r="B16">
+        <v>5362359</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.66485256250000002</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.96817207909967795</v>
+      </c>
+      <c r="E16" s="3">
+        <v>82.810936999999996</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.97306173569781695</v>
+      </c>
+      <c r="G16" s="3">
+        <v>70.412728000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>112</v>
+      </c>
+      <c r="B17">
+        <v>5599074</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.65005787500000001</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.96821496860868494</v>
+      </c>
+      <c r="E17" s="3">
+        <v>82.433608000000007</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.97311597871083799</v>
+      </c>
+      <c r="G17" s="3">
+        <v>70.057683999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>128</v>
+      </c>
+      <c r="B18">
+        <v>6010422</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.62434862499999999</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.96827582641772603</v>
+      </c>
+      <c r="E18" s="3">
+        <v>81.760645999999994</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.97314521121475595</v>
+      </c>
+      <c r="G18" s="3">
+        <v>69.487277000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>144</v>
+      </c>
+      <c r="B19">
+        <v>6324878</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.604695125</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.96834054674617498</v>
+      </c>
+      <c r="E19" s="3">
+        <v>83.148212999999998</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.97328553976557597</v>
+      </c>
+      <c r="G19" s="3">
+        <v>70.683363999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>160</v>
+      </c>
+      <c r="B20">
+        <v>6580876</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.58869525</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.96824882491685604</v>
+      </c>
+      <c r="E20" s="3">
+        <v>82.682359000000005</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.97326504649703405</v>
+      </c>
+      <c r="G20" s="3">
+        <v>70.058104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>192</v>
+      </c>
+      <c r="B21">
+        <v>6898419</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.56884881249999997</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.96810845606993601</v>
+      </c>
+      <c r="E21" s="3">
+        <v>84.192961999999994</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.97312532731724999</v>
+      </c>
+      <c r="G21" s="3">
+        <v>71.594922999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>224</v>
+      </c>
+      <c r="B22">
+        <v>7138647</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.55383456250000007</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.96793698411254403</v>
+      </c>
+      <c r="E22" s="3">
+        <v>85.995649999999998</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.97295157426187695</v>
+      </c>
+      <c r="G22" s="3">
+        <v>73.398549000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC91EF9-5A2B-4E8B-B14F-BA82F77DFE6C}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -35559,7 +36223,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -35569,21 +36233,21 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="20"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -35613,65 +36277,335 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>132643</v>
       </c>
       <c r="C6" s="1">
         <f>1-B6/(16*1000*1000)</f>
-        <v>1</v>
+        <v>0.99170981250000001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.967700786625036</v>
+      </c>
+      <c r="E6" s="3">
+        <v>78.420267999999993</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.97239576568214903</v>
+      </c>
+      <c r="G6" s="3">
+        <v>66.551036999999994</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>578197</v>
+        <v>616186</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ref="C7:C14" si="0">1-B7/(16*1000*1000)</f>
-        <v>0.96386268750000004</v>
+        <v>0.96148837499999995</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.96764160738479399</v>
+      </c>
+      <c r="E7" s="3">
+        <v>78.517197999999993</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.97239031219385896</v>
+      </c>
+      <c r="G7" s="3">
+        <v>66.525548999999998</v>
       </c>
     </row>
     <row r="8" spans="1:7">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>1557384</v>
+      </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.90266349999999995</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.96771401447743999</v>
+      </c>
+      <c r="E8" s="3">
+        <v>78.716175000000007</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.97245990982137198</v>
+      </c>
+      <c r="G8" s="3">
+        <v>66.711572000000004</v>
       </c>
     </row>
     <row r="9" spans="1:7">
+      <c r="A9">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>2647037</v>
+      </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.83456018749999994</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.96762823604713999</v>
+      </c>
+      <c r="E9" s="3">
+        <v>80.46208</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.97235571468855797</v>
+      </c>
+      <c r="G9" s="3">
+        <v>68.476508999999993</v>
       </c>
     </row>
     <row r="10" spans="1:7">
+      <c r="A10">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>3656974</v>
+      </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.771439125</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.96760619511802304</v>
+      </c>
+      <c r="E10" s="3">
+        <v>80.745952000000003</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.97234757983423903</v>
+      </c>
+      <c r="G10" s="3">
+        <v>68.725825</v>
       </c>
     </row>
     <row r="11" spans="1:7">
+      <c r="A11">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>4518473</v>
+      </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.71759543749999999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.96755786013704104</v>
+      </c>
+      <c r="E11" s="3">
+        <v>82.762600000000006</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.97229560738485399</v>
+      </c>
+      <c r="G11" s="3">
+        <v>70.717923999999996</v>
       </c>
     </row>
     <row r="12" spans="1:7">
+      <c r="A12">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <v>5203837</v>
+      </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.6747601875</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.967539473740196</v>
+      </c>
+      <c r="E12" s="3">
+        <v>83.369637999999995</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.97230085133133304</v>
+      </c>
+      <c r="G12" s="3">
+        <v>71.265241000000003</v>
       </c>
     </row>
     <row r="13" spans="1:7">
+      <c r="A13">
+        <v>56</v>
+      </c>
+      <c r="B13">
+        <v>5725722</v>
+      </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.64214237499999993</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.96746899190070901</v>
+      </c>
+      <c r="E13" s="3">
+        <v>85.389943000000002</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.97224435404009002</v>
+      </c>
+      <c r="G13" s="3">
+        <v>73.242116999999993</v>
       </c>
     </row>
     <row r="14" spans="1:7">
+      <c r="A14">
+        <v>64</v>
+      </c>
+      <c r="B14">
+        <v>6119577</v>
+      </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.61752643750000002</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.96745679017016795</v>
+      </c>
+      <c r="E14" s="3">
+        <v>85.183406000000005</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.97229357623403301</v>
+      </c>
+      <c r="G14" s="3">
+        <v>72.880847000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>72</v>
+      </c>
+      <c r="B15">
+        <v>6454146</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" ref="C15:C19" si="1">1-B15/(16*1000*1000)</f>
+        <v>0.59661587500000002</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.96752344518870004</v>
+      </c>
+      <c r="E15" s="3">
+        <v>85.441418999999996</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.97231554321732605</v>
+      </c>
+      <c r="G15" s="3">
+        <v>73.253594000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>80</v>
+      </c>
+      <c r="B16">
+        <v>6695348</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.58154075000000005</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.96740385634704795</v>
+      </c>
+      <c r="E16" s="3">
+        <v>85.867393000000007</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.97215121699072304</v>
+      </c>
+      <c r="G16" s="3">
+        <v>73.781155999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>88</v>
+      </c>
+      <c r="B17">
+        <v>6890153</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.56936543750000002</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.96749866859745803</v>
+      </c>
+      <c r="E17" s="3">
+        <v>85.895722000000006</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.97232334654782104</v>
+      </c>
+      <c r="G17" s="3">
+        <v>73.644986000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>96</v>
+      </c>
+      <c r="B18">
+        <v>7047265</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.55954593750000003</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.96751047996947404</v>
+      </c>
+      <c r="E18" s="3">
+        <v>85.409034000000005</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.97236994636736795</v>
+      </c>
+      <c r="G18" s="3">
+        <v>73.069981999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>112</v>
+      </c>
+      <c r="B19">
+        <v>7266014</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.54587412499999999</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.96740215016010001</v>
+      </c>
+      <c r="E19" s="3">
+        <v>86.591247999999993</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.972261141897235</v>
+      </c>
+      <c r="G19" s="3">
+        <v>74.257524000000004</v>
       </c>
     </row>
   </sheetData>
@@ -35702,14 +36636,14 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="21"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8">
@@ -36253,14 +37187,14 @@
       <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="21"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8">
@@ -36625,14 +37559,14 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="20"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8">
@@ -37097,14 +38031,14 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="20"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8">
@@ -37568,14 +38502,14 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="20"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -37861,14 +38795,14 @@
       <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20" t="s">
+      <c r="E16" s="21"/>
+      <c r="F16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="20"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
@@ -38294,14 +39228,14 @@
       <c r="A2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="20"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8">
@@ -38537,30 +39471,30 @@
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="Q2" s="20" t="s">
+      <c r="F2" s="21"/>
+      <c r="Q2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20" t="s">
+      <c r="R2" s="21"/>
+      <c r="S2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20" t="s">
+      <c r="T2" s="21"/>
+      <c r="U2" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="20"/>
+      <c r="V2" s="21"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
@@ -39197,30 +40131,30 @@
       </c>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20" t="s">
+      <c r="D25" s="21"/>
+      <c r="E25" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="Q25" s="20" t="s">
+      <c r="F25" s="21"/>
+      <c r="Q25" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20" t="s">
+      <c r="R25" s="21"/>
+      <c r="S25" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20" t="s">
+      <c r="T25" s="21"/>
+      <c r="U25" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="V25" s="20"/>
+      <c r="V25" s="21"/>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" t="s">
@@ -39780,7 +40714,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -39799,14 +40733,14 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="20"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8">
